--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC190044-95B6-4A79-B16A-62260741B0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937C39CB-09E8-4255-B1F0-A455B4EECDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="129">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -749,6 +748,26 @@
       <t>ダ</t>
     </rPh>
     <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>joyspointDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joysポイント消費呼び出し用</t>
+    <rPh sb="8" eb="10">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1186,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G71"/>
+  <dimension ref="B2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F60" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2630,20 +2649,20 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <f t="shared" ref="B70:B71" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>75</v>
@@ -2651,7 +2670,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B71:B72" si="1">ROW()-2</f>
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2661,12 +2680,33 @@
         <v>7</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2684,12 +2724,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2864,15 +2901,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2897,18 +2946,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937C39CB-09E8-4255-B1F0-A455B4EECDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1392BE10-51A1-48AB-9193-F059680D0F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -770,6 +770,31 @@
     <rPh sb="14" eb="15">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_joys.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョイス交換リザルト　Beans</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョイス交換リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_joys.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1205,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G72"/>
+  <dimension ref="B2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2670,7 +2695,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <f t="shared" ref="B71:B72" si="1">ROW()-2</f>
+        <f t="shared" ref="B71:B74" si="1">ROW()-2</f>
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2708,6 +2733,48 @@
       </c>
       <c r="G72" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2724,9 +2791,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2901,27 +2971,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2946,9 +3004,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1392BE10-51A1-48AB-9193-F059680D0F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0EE0CB-77CD-4014-984E-BC8B85AC78FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="135">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -795,6 +795,17 @@
   </si>
   <si>
     <t>result_joys.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goalupdateDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標更新削除用</t>
+    <rPh sb="0" eb="7">
+      <t>モクヒョウコウシンサクジョヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1230,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G74"/>
+  <dimension ref="B2:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2695,20 +2706,20 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <f t="shared" ref="B71:B74" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>75</v>
@@ -2716,7 +2727,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B72:B75" si="1">ROW()-2</f>
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2726,10 +2737,10 @@
         <v>7</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>75</v>
@@ -2744,16 +2755,16 @@
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
@@ -2762,18 +2773,39 @@
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2791,12 +2823,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2971,15 +3000,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3004,18 +3045,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0EE0CB-77CD-4014-984E-BC8B85AC78FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A14C0D-7D27-4A1B-B31A-BBED694557F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="140">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>goalRegistar.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>goalRegistar.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -805,6 +801,57 @@
     <t>目標更新削除用</t>
     <rPh sb="0" eb="7">
       <t>モクヒョウコウシンサクジョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>homeRegistar.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_joys_false.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joys交換成功リザルト画面用</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joys交換失敗リザルト画面用</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rankingDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邉</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1241,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G75"/>
+  <dimension ref="B2:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1294,12 +1341,12 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B66" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B68" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1315,7 +1362,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1336,7 +1383,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1357,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1378,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1393,13 +1440,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1414,13 +1461,13 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1435,13 +1482,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1456,13 +1503,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1483,7 +1530,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1504,7 +1551,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1525,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1540,13 +1587,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1567,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1588,7 +1635,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1609,7 +1656,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1624,13 +1671,13 @@
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1651,7 +1698,7 @@
         <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1672,7 +1719,7 @@
         <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1693,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1708,13 +1755,13 @@
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1735,7 +1782,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1756,7 +1803,7 @@
         <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1777,7 +1824,7 @@
         <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1792,13 +1839,13 @@
         <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1813,13 +1860,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1834,13 +1881,13 @@
         <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1855,13 +1902,13 @@
         <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1876,13 +1923,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1897,13 +1944,13 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1918,13 +1965,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1939,13 +1986,13 @@
         <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1960,13 +2007,13 @@
         <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1981,13 +2028,13 @@
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -2002,13 +2049,13 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -2023,13 +2070,13 @@
         <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -2044,13 +2091,13 @@
         <v>7</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -2065,13 +2112,13 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2086,13 +2133,13 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2107,13 +2154,13 @@
         <v>19</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2128,13 +2175,13 @@
         <v>7</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2149,13 +2196,13 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2170,13 +2217,13 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2191,13 +2238,13 @@
         <v>19</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2212,13 +2259,13 @@
         <v>7</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2233,13 +2280,13 @@
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2254,13 +2301,13 @@
         <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2275,18 +2322,17 @@
         <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2296,34 +2342,33 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2332,19 +2377,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2353,19 +2398,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2374,19 +2419,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2395,19 +2440,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2422,34 +2467,34 @@
         <v>27</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B58" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>76</v>
+      <c r="E58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -2464,33 +2509,33 @@
         <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="B60" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="E60" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2506,13 +2551,13 @@
         <v>27</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -2527,13 +2572,13 @@
         <v>27</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -2548,13 +2593,13 @@
         <v>27</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -2569,13 +2614,13 @@
         <v>27</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -2587,16 +2632,16 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -2608,55 +2653,55 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>75</v>
@@ -2671,16 +2716,16 @@
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
@@ -2692,16 +2737,16 @@
         <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
@@ -2713,100 +2758,163 @@
         <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
-        <f t="shared" ref="B72:B75" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
+        <f t="shared" ref="B75:B78" si="1">ROW()-2</f>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="1">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>77</v>
+      <c r="F78" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2823,9 +2931,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3000,27 +3111,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3045,9 +3144,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
+++ b/doc/05_ファイル構成一覧表_C3チームにんじん戦線（最終変更6月20日）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A14C0D-7D27-4A1B-B31A-BBED694557F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A49440-7F80-4A04-9792-1B1C55D253AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="5115" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="142">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -852,6 +852,17 @@
     <t>渡邉</t>
     <rPh sb="0" eb="2">
       <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト用</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1288,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G78"/>
+  <dimension ref="B2:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1346,41 +1357,39 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B68" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B5:B69" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>74</v>
@@ -1392,16 +1401,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>74</v>
@@ -1413,16 +1422,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>74</v>
@@ -1434,16 +1443,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>74</v>
@@ -1455,16 +1464,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>74</v>
@@ -1476,16 +1485,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>74</v>
@@ -1497,19 +1506,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1518,16 +1527,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>75</v>
@@ -1539,16 +1548,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>75</v>
@@ -1560,16 +1569,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>75</v>
@@ -1581,16 +1590,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>75</v>
@@ -1602,13 +1611,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>35</v>
@@ -1623,13 +1632,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>35</v>
@@ -1644,13 +1653,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>35</v>
@@ -1665,19 +1674,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1686,13 +1695,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>45</v>
@@ -1707,13 +1716,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>45</v>
@@ -1728,13 +1737,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>45</v>
@@ -1749,19 +1758,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1770,13 +1779,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>47</v>
@@ -1791,13 +1800,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>47</v>
@@ -1812,13 +1821,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>47</v>
@@ -1833,19 +1842,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1854,13 +1863,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>51</v>
@@ -1875,13 +1884,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>51</v>
@@ -1896,13 +1905,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>51</v>
@@ -1917,16 +1926,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>75</v>
@@ -1938,13 +1947,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>54</v>
@@ -1959,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>54</v>
@@ -1980,13 +1989,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>54</v>
@@ -2001,19 +2010,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -2022,13 +2031,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>70</v>
@@ -2043,13 +2052,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>70</v>
@@ -2064,13 +2073,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>70</v>
@@ -2085,16 +2094,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>76</v>
@@ -2106,13 +2115,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>64</v>
@@ -2127,13 +2136,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>64</v>
@@ -2148,13 +2157,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>64</v>
@@ -2169,16 +2178,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>76</v>
@@ -2190,13 +2199,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>65</v>
@@ -2211,13 +2220,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>65</v>
@@ -2232,13 +2241,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>65</v>
@@ -2253,19 +2262,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2274,13 +2283,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>67</v>
@@ -2295,13 +2304,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>67</v>
@@ -2316,13 +2325,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>67</v>
@@ -2333,19 +2342,20 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>74</v>
@@ -2353,7 +2363,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -2362,10 +2372,10 @@
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>74</v>
@@ -2373,8 +2383,7 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
@@ -2383,10 +2392,10 @@
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>74</v>
@@ -2398,13 +2407,13 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>68</v>
@@ -2419,13 +2428,13 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>68</v>
@@ -2446,10 +2455,10 @@
         <v>19</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>74</v>
@@ -2461,16 +2470,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>74</v>
@@ -2488,13 +2497,13 @@
         <v>27</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -2509,55 +2518,55 @@
         <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="2:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="B60" s="5">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="B61" s="5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -2572,13 +2581,13 @@
         <v>27</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -2593,13 +2602,13 @@
         <v>27</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -2614,13 +2623,13 @@
         <v>27</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -2635,13 +2644,13 @@
         <v>27</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -2656,13 +2665,13 @@
         <v>27</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
@@ -2674,16 +2683,16 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -2697,19 +2706,19 @@
       <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>40</v>
+      <c r="E68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2719,18 +2728,18 @@
         <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B70:B75" si="1">ROW()-2</f>
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2740,18 +2749,18 @@
         <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2761,10 +2770,10 @@
         <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>74</v>
@@ -2772,7 +2781,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2782,10 +2791,10 @@
         <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>74</v>
@@ -2793,7 +2802,7 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2803,10 +2812,10 @@
         <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>74</v>
@@ -2814,7 +2823,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2824,39 +2833,39 @@
         <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
-        <f t="shared" ref="B75:B78" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B76:B79" si="2">ROW()-2</f>
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2866,10 +2875,10 @@
         <v>7</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>74</v>
@@ -2877,53 +2886,74 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="1">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
-    <hyperlink ref="E16" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
-    <hyperlink ref="E12" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
-    <hyperlink ref="E13" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
+    <hyperlink ref="E16" r:id="rId1" display="home.js" xr:uid="{8FBF5C91-7311-48C4-A8BB-D4AF938BAB8C}"/>
+    <hyperlink ref="E17" r:id="rId2" display="home.css" xr:uid="{326C7A2E-F549-478C-A2B5-23060A0FC036}"/>
+    <hyperlink ref="E13" r:id="rId3" display="home.js" xr:uid="{95878E75-FA70-47D4-8A25-CCD3E35E8C19}"/>
+    <hyperlink ref="E14" r:id="rId4" display="home.css" xr:uid="{70ACB2EF-B03A-4EA4-8DE7-F15BE40D513E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -2931,12 +2961,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3111,15 +3138,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3144,18 +3183,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>